--- a/emotions/fer_results_v2.xlsx
+++ b/emotions/fer_results_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\my-study-python\emotions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6F4119-21F6-47C4-8854-0BA7A6C26D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B835E6-40AD-4501-AE11-C49F431AE044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1243,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB20226-B772-4265-B7C7-3F04A2877E1A}">
   <dimension ref="A1:S114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N86" sqref="N86"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P89" sqref="P89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
@@ -2848,7 +2848,7 @@
         <v>Емоційний стан</v>
       </c>
       <c r="L29" s="5" t="str">
-        <f t="shared" ref="K29:Q29" si="9">L1</f>
+        <f t="shared" ref="L29:Q29" si="9">L1</f>
         <v>Accuracy</v>
       </c>
       <c r="M29" s="5" t="str">
@@ -3042,7 +3042,7 @@
         <v>14</v>
       </c>
       <c r="K35" s="5" t="str">
-        <f t="shared" ref="K31:K54" si="13">K7</f>
+        <f t="shared" ref="K35:K54" si="13">K7</f>
         <v>Злість</v>
       </c>
       <c r="L35" s="4">
@@ -3079,7 +3079,7 @@
         <v>Страх</v>
       </c>
       <c r="L36" s="4">
-        <f t="shared" ref="L36:Q40" si="15">AVERAGE(L$7:L$11)</f>
+        <f t="shared" ref="L36:Q39" si="15">AVERAGE(L$7:L$11)</f>
         <v>77.325208466966004</v>
       </c>
       <c r="M36" s="4">
@@ -3244,7 +3244,7 @@
         <v>Страх</v>
       </c>
       <c r="L41" s="4">
-        <f t="shared" ref="L41:Q54" si="17">AVERAGE(L$12:L$16)</f>
+        <f t="shared" ref="L41:Q44" si="17">AVERAGE(L$12:L$16)</f>
         <v>78.592046183450918</v>
       </c>
       <c r="M41" s="4">
@@ -4977,7 +4977,7 @@
         <v>5.0994227068633791</v>
       </c>
       <c r="M108" s="7">
-        <f t="shared" ref="L108:Q108" si="45">M$58-M82</f>
+        <f t="shared" ref="M108:Q108" si="45">M$58-M82</f>
         <v>5.3130400532631228</v>
       </c>
       <c r="N108" s="7">
